--- a/docs/cash_flow_em.xlsx
+++ b/docs/cash_flow_em.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\tmp\akshare\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750025DB-D61B-425B-B8AA-0C3C1152B24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16704" windowHeight="14052"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Terms" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="563">
   <si>
     <t>SECUCODE</t>
   </si>
@@ -1034,17 +1029,695 @@
   <si>
     <t>CURRENCY</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>机构代码</t>
+  </si>
+  <si>
+    <t>机构类型</t>
+  </si>
+  <si>
+    <t>REPORT_DATE</t>
+  </si>
+  <si>
+    <t>报告日期</t>
+  </si>
+  <si>
+    <t>REPORT_TYPE</t>
+  </si>
+  <si>
+    <t>报告类型</t>
+  </si>
+  <si>
+    <t>报告期名称</t>
+  </si>
+  <si>
+    <t>证券类别代码</t>
+  </si>
+  <si>
+    <t>公告日期</t>
+  </si>
+  <si>
+    <t>更新日期</t>
+  </si>
+  <si>
+    <t>CURRENCY</t>
+  </si>
+  <si>
+    <t>货币单位</t>
+  </si>
+  <si>
+    <t>销售商品提供劳务收到的现金</t>
+  </si>
+  <si>
+    <t>同业存放款项净增加额</t>
+  </si>
+  <si>
+    <t>向中央银行借款净增加额</t>
+  </si>
+  <si>
+    <t>发行债券收到的现金</t>
+  </si>
+  <si>
+    <t>原保险合同保费收入</t>
+  </si>
+  <si>
+    <t>再保险业务现金净流入</t>
+  </si>
+  <si>
+    <t>取得投资收益收到的现金</t>
+  </si>
+  <si>
+    <t>处置交易性金融资产净增加额</t>
+  </si>
+  <si>
+    <t>收取利息、手续费及佣金的现金</t>
+  </si>
+  <si>
+    <t>拆入资金净增加额</t>
+  </si>
+  <si>
+    <t>贷款及垫款净减少额</t>
+  </si>
+  <si>
+    <t>回购业务资金净增加额</t>
+  </si>
+  <si>
+    <t>收到的税费返还</t>
+  </si>
+  <si>
+    <t>收到其他与经营活动有关的现金</t>
+  </si>
+  <si>
+    <t>经营活动产生的现金流量其他项目</t>
+  </si>
+  <si>
+    <t>经营活动产生的现金流量净额</t>
+  </si>
+  <si>
+    <t>经营活动现金流入小计</t>
+  </si>
+  <si>
+    <t>购买商品接受劳务支付的现金</t>
+  </si>
+  <si>
+    <t>贷款及垫款净增加额</t>
+  </si>
+  <si>
+    <t>存放中央银行和同业款项净增加额</t>
+  </si>
+  <si>
+    <t>原保险合同赔付款项</t>
+  </si>
+  <si>
+    <t>支付利息、手续费及佣金的现金</t>
+  </si>
+  <si>
+    <t>支付保单红利的现金</t>
+  </si>
+  <si>
+    <t>支付给职工以及为职工支付的现金</t>
+  </si>
+  <si>
+    <t>支付的各项税费</t>
+  </si>
+  <si>
+    <t>支付其他与经营活动有关的现金</t>
+  </si>
+  <si>
+    <t>经营活动现金流出小计</t>
+  </si>
+  <si>
+    <t>经营活动现金流量其他项目</t>
+  </si>
+  <si>
+    <t>经营活动现金流量净额</t>
+  </si>
+  <si>
+    <t>投资支付的现金</t>
+  </si>
+  <si>
+    <t>处置固定资产、无形资产和其他长期资产收回的现金净额</t>
+  </si>
+  <si>
+    <t>处置子公司及其他营业单位收到的现金净额</t>
+  </si>
+  <si>
+    <t>减少质押存单</t>
+  </si>
+  <si>
+    <t>收到其他与投资活动有关的现金</t>
+  </si>
+  <si>
+    <t>投资活动现金流入其他项目</t>
+  </si>
+  <si>
+    <t>投资活动现金流入净额</t>
+  </si>
+  <si>
+    <t>投资活动现金流入小计</t>
+  </si>
+  <si>
+    <t>构建固定资产、无形资产和其他长期资产支付的现金</t>
+  </si>
+  <si>
+    <t>质押贷款增加额</t>
+  </si>
+  <si>
+    <t>取得子公司及其他营业单位支付的现金净额</t>
+  </si>
+  <si>
+    <t>增加质押存单</t>
+  </si>
+  <si>
+    <t>支付其他与投资活动有关的现金</t>
+  </si>
+  <si>
+    <t>投资活动现金流出其他项目</t>
+  </si>
+  <si>
+    <t>投资活动现金流出净额</t>
+  </si>
+  <si>
+    <t>投资活动现金流出小计</t>
+  </si>
+  <si>
+    <t>投资活动现金流量其他项目</t>
+  </si>
+  <si>
+    <t>投资活动现金流量净额</t>
+  </si>
+  <si>
+    <t>投资活动产生的现金流量净额</t>
+  </si>
+  <si>
+    <t>吸收投资收到的现金</t>
+  </si>
+  <si>
+    <t>子公司吸收少数股东投资收到的现金</t>
+  </si>
+  <si>
+    <t>取得借款收到的现金</t>
+  </si>
+  <si>
+    <t>收到其他与筹资活动有关的现金</t>
+  </si>
+  <si>
+    <t>筹资活动现金流入其他项目</t>
+  </si>
+  <si>
+    <t>筹资活动现金流入净额</t>
+  </si>
+  <si>
+    <t>筹资活动现金流入小计</t>
+  </si>
+  <si>
+    <t>偿还债务支付的现金</t>
+  </si>
+  <si>
+    <t>分配股利、利润或偿付利息支付的现金</t>
+  </si>
+  <si>
+    <t>子公司支付少数股东的股利、利润</t>
+  </si>
+  <si>
+    <t>购买子公司少数股东股权支付的现金</t>
+  </si>
+  <si>
+    <t>支付其他与筹资活动有关的现金</t>
+  </si>
+  <si>
+    <t>子公司减少少数股东权益支付的现金</t>
+  </si>
+  <si>
+    <t>筹资活动现金流出其他项目</t>
+  </si>
+  <si>
+    <t>筹资活动现金流出净额</t>
+  </si>
+  <si>
+    <t>筹资活动现金流出小计</t>
+  </si>
+  <si>
+    <t>筹资活动现金流量其他项目</t>
+  </si>
+  <si>
+    <t>筹资活动现金流量净额</t>
+  </si>
+  <si>
+    <t>筹资活动产生的现金流量净额</t>
+  </si>
+  <si>
+    <t>汇率变动对现金的影响</t>
+  </si>
+  <si>
+    <t>现金及现金等价物增加额其他项目</t>
+  </si>
+  <si>
+    <t>现金及现金等价物增加额</t>
+  </si>
+  <si>
+    <t>期初现金及现金等价物余额</t>
+  </si>
+  <si>
+    <t>期末现金及现金等价物余额其他项目</t>
+  </si>
+  <si>
+    <t>期末现金及现金等价物余额</t>
+  </si>
+  <si>
+    <t>净利润</t>
+  </si>
+  <si>
+    <t>资产减值损失</t>
+  </si>
+  <si>
+    <t>固定资产折旧、油气资产折耗、生产性生物资产折旧</t>
+  </si>
+  <si>
+    <t>油气资产折耗、生产性生物资产折旧</t>
+  </si>
+  <si>
+    <t>生产性生物资产折旧</t>
+  </si>
+  <si>
+    <t>无形资产摊销</t>
+  </si>
+  <si>
+    <t>长期待摊费用摊销</t>
+  </si>
+  <si>
+    <t>递延所得税资产减少</t>
+  </si>
+  <si>
+    <t>预付账款减少</t>
+  </si>
+  <si>
+    <t>应付账款增加</t>
+  </si>
+  <si>
+    <t>处置固定资产、无形资产和其他长期资产的损失</t>
+  </si>
+  <si>
+    <t>固定资产报废损失</t>
+  </si>
+  <si>
+    <t>公允价值变动损失</t>
+  </si>
+  <si>
+    <t>财务费用</t>
+  </si>
+  <si>
+    <t>投资损失</t>
+  </si>
+  <si>
+    <t>递延所得税负债增加</t>
+  </si>
+  <si>
+    <t>预计负债增加</t>
+  </si>
+  <si>
+    <t>存货减少</t>
+  </si>
+  <si>
+    <t>经营性应收项目的减少</t>
+  </si>
+  <si>
+    <t>经营性应付项目的增加</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>经营活动现金流量补充资料附注</t>
+  </si>
+  <si>
+    <t>债务转为资本</t>
+  </si>
+  <si>
+    <t>一年内到期的可转换公司债券</t>
+  </si>
+  <si>
+    <t>融资租赁取得的固定资产</t>
+  </si>
+  <si>
+    <t>不涉及现金收支的投资和筹资活动</t>
+  </si>
+  <si>
+    <t>期末现金余额</t>
+  </si>
+  <si>
+    <t>期初现金余额</t>
+  </si>
+  <si>
+    <t>现金及现金等价物净增加额附注</t>
+  </si>
+  <si>
+    <t>销售商品提供劳务收到的现金同比</t>
+  </si>
+  <si>
+    <t>同业存放款项净增加额同比</t>
+  </si>
+  <si>
+    <t>向中央银行借款净增加额同比</t>
+  </si>
+  <si>
+    <t>发行债券收到的现金同比</t>
+  </si>
+  <si>
+    <t>原保险合同保费收入同比</t>
+  </si>
+  <si>
+    <t>再保险业务现金净流入同比</t>
+  </si>
+  <si>
+    <t>取得投资收益收到的现金同比</t>
+  </si>
+  <si>
+    <t>处置交易性金融资产净增加额同比</t>
+  </si>
+  <si>
+    <t>收取利息、手续费及佣金的现金同比</t>
+  </si>
+  <si>
+    <t>拆入资金净增加额同比</t>
+  </si>
+  <si>
+    <t>贷款及垫款净减少额同比</t>
+  </si>
+  <si>
+    <t>回购业务资金净增加额同比</t>
+  </si>
+  <si>
+    <t>收到的税费返还同比</t>
+  </si>
+  <si>
+    <t>收到其他与经营活动有关的现金同比</t>
+  </si>
+  <si>
+    <t>经营活动产生的现金流量其他项目同比</t>
+  </si>
+  <si>
+    <t>经营活动产生的现金流量净额同比</t>
+  </si>
+  <si>
+    <t>经营活动现金流入小计同比</t>
+  </si>
+  <si>
+    <t>购买商品接受劳务支付的现金同比</t>
+  </si>
+  <si>
+    <t>贷款及垫款净增加额同比</t>
+  </si>
+  <si>
+    <t>存放中央银行和同业款项净增加额同比</t>
+  </si>
+  <si>
+    <t>原保险合同赔付款项同比</t>
+  </si>
+  <si>
+    <t>支付利息、手续费及佣金的现金同比</t>
+  </si>
+  <si>
+    <t>支付保单红利的现金同比</t>
+  </si>
+  <si>
+    <t>支付给职工以及为职工支付的现金同比</t>
+  </si>
+  <si>
+    <t>支付的各项税费同比</t>
+  </si>
+  <si>
+    <t>支付其他与经营活动有关的现金同比</t>
+  </si>
+  <si>
+    <t>经营活动现金流出小计同比</t>
+  </si>
+  <si>
+    <t>经营活动现金流量其他项目同比</t>
+  </si>
+  <si>
+    <t>经营活动现金流量净额同比</t>
+  </si>
+  <si>
+    <t>投资支付的现金同比</t>
+  </si>
+  <si>
+    <t>处置固定资产、无形资产和其他长期资产收回的现金净额同比</t>
+  </si>
+  <si>
+    <t>处置子公司及其他营业单位收到的现金净额同比</t>
+  </si>
+  <si>
+    <t>减少质押存单同比</t>
+  </si>
+  <si>
+    <t>收到其他与投资活动有关的现金同比</t>
+  </si>
+  <si>
+    <t>投资活动现金流入其他项目同比</t>
+  </si>
+  <si>
+    <t>投资活动现金流入净额同比</t>
+  </si>
+  <si>
+    <t>投资活动现金流入小计同比</t>
+  </si>
+  <si>
+    <t>构建固定资产、无形资产和其他长期资产支付的现金同比</t>
+  </si>
+  <si>
+    <t>质押贷款增加额同比</t>
+  </si>
+  <si>
+    <t>取得子公司及其他营业单位支付的现金净额同比</t>
+  </si>
+  <si>
+    <t>增加质押存单同比</t>
+  </si>
+  <si>
+    <t>支付其他与投资活动有关的现金同比</t>
+  </si>
+  <si>
+    <t>投资活动现金流出其他项目同比</t>
+  </si>
+  <si>
+    <t>投资活动现金流出净额同比</t>
+  </si>
+  <si>
+    <t>投资活动现金流出小计同比</t>
+  </si>
+  <si>
+    <t>投资活动现金流量其他项目同比</t>
+  </si>
+  <si>
+    <t>投资活动现金流量净额同比</t>
+  </si>
+  <si>
+    <t>投资活动产生的现金流量净额同比</t>
+  </si>
+  <si>
+    <t>吸收投资收到的现金同比</t>
+  </si>
+  <si>
+    <t>子公司吸收少数股东投资收到的现金同比</t>
+  </si>
+  <si>
+    <t>取得借款收到的现金同比</t>
+  </si>
+  <si>
+    <t>收到其他与筹资活动有关的现金同比</t>
+  </si>
+  <si>
+    <t>筹资活动现金流入其他项目同比</t>
+  </si>
+  <si>
+    <t>筹资活动现金流入净额同比</t>
+  </si>
+  <si>
+    <t>筹资活动现金流入小计同比</t>
+  </si>
+  <si>
+    <t>偿还债务支付的现金同比</t>
+  </si>
+  <si>
+    <t>分配股利、利润或偿付利息支付的现金同比</t>
+  </si>
+  <si>
+    <t>子公司支付少数股东的股利、利润同比</t>
+  </si>
+  <si>
+    <t>购买子公司少数股东股权支付的现金同比</t>
+  </si>
+  <si>
+    <t>支付其他与筹资活动有关的现金同比</t>
+  </si>
+  <si>
+    <t>子公司减少少数股东权益支付的现金同比</t>
+  </si>
+  <si>
+    <t>筹资活动现金流出其他项目同比</t>
+  </si>
+  <si>
+    <t>筹资活动现金流出净额同比</t>
+  </si>
+  <si>
+    <t>筹资活动现金流出小计同比</t>
+  </si>
+  <si>
+    <t>筹资活动现金流量其他项目同比</t>
+  </si>
+  <si>
+    <t>筹资活动现金流量净额同比</t>
+  </si>
+  <si>
+    <t>筹资活动产生的现金流量净额同比</t>
+  </si>
+  <si>
+    <t>汇率变动对现金的影响同比</t>
+  </si>
+  <si>
+    <t>现金及现金等价物增加额其他项目同比</t>
+  </si>
+  <si>
+    <t>现金及现金等价物增加额同比</t>
+  </si>
+  <si>
+    <t>期初现金及现金等价物余额同比</t>
+  </si>
+  <si>
+    <t>期末现金及现金等价物余额其他项目同比</t>
+  </si>
+  <si>
+    <t>期末现金及现金等价物余额同比</t>
+  </si>
+  <si>
+    <t>净利润同比</t>
+  </si>
+  <si>
+    <t>资产减值损失同比</t>
+  </si>
+  <si>
+    <t>固定资产折旧、油气资产折耗、生产性生物资产折旧同比</t>
+  </si>
+  <si>
+    <t>油气资产折耗、生产性生物资产折旧同比</t>
+  </si>
+  <si>
+    <t>生产性生物资产折旧同比</t>
+  </si>
+  <si>
+    <t>无形资产摊销同比</t>
+  </si>
+  <si>
+    <t>长期待摊费用摊销同比</t>
+  </si>
+  <si>
+    <t>递延所得税资产减少同比</t>
+  </si>
+  <si>
+    <t>预付账款减少同比</t>
+  </si>
+  <si>
+    <t>应付账款增加同比</t>
+  </si>
+  <si>
+    <t>处置固定资产、无形资产和其他长期资产的损失同比</t>
+  </si>
+  <si>
+    <t>固定资产报废损失同比</t>
+  </si>
+  <si>
+    <t>公允价值变动损失同比</t>
+  </si>
+  <si>
+    <t>财务费用同比</t>
+  </si>
+  <si>
+    <t>投资损失同比</t>
+  </si>
+  <si>
+    <t>递延所得税负债增加同比</t>
+  </si>
+  <si>
+    <t>预计负债增加同比</t>
+  </si>
+  <si>
+    <t>存货减少同比</t>
+  </si>
+  <si>
+    <t>经营性应收项目的减少同比</t>
+  </si>
+  <si>
+    <t>经营性应付项目的增加同比</t>
+  </si>
+  <si>
+    <t>其他同比</t>
+  </si>
+  <si>
+    <t>经营活动现金流量补充资料附注同比</t>
+  </si>
+  <si>
+    <t>债务转为资本同比</t>
+  </si>
+  <si>
+    <t>一年内到期的可转换公司债券同比</t>
+  </si>
+  <si>
+    <t>融资租赁取得的固定资产同比</t>
+  </si>
+  <si>
+    <t>不涉及现金收支的投资和筹资活动同比</t>
+  </si>
+  <si>
+    <t>期末现金余额同比</t>
+  </si>
+  <si>
+    <t>期初现金余额同比</t>
+  </si>
+  <si>
+    <t>现金及现金等价物净增加额附注同比</t>
+  </si>
+  <si>
+    <t>审计意见类型</t>
+  </si>
+  <si>
+    <t>其他特殊审计意见类型</t>
+  </si>
+  <si>
+    <t>少数股东权益</t>
+  </si>
+  <si>
+    <t>少数股东权益同比</t>
+  </si>
+  <si>
+    <t>使用权资产摊销</t>
+  </si>
+  <si>
+    <t>使用权资产摊销同比</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1057,7 +1730,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1068,6 +1741,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1077,7 +1758,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1100,11 +1781,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1118,9 +1887,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1419,19 +2197,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1508,7 +2286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +2446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1748,7 +2526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1828,7 +2606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1908,7 +2686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26">
       <c r="A7" s="3" t="s">
         <v>334</v>
       </c>
@@ -1988,7 +2766,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26">
       <c r="A8" s="3" t="s">
         <v>335</v>
       </c>
@@ -2068,7 +2846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
@@ -2148,7 +2926,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
@@ -2228,7 +3006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -2308,7 +3086,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
         <v>89</v>
       </c>
@@ -2388,7 +3166,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26">
       <c r="A13" s="3" t="s">
         <v>336</v>
       </c>
@@ -2468,7 +3246,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26">
       <c r="A14" s="4" t="s">
         <v>91</v>
       </c>
@@ -2548,7 +3326,7 @@
         <v>1322877029.52</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26">
       <c r="A15" s="4" t="s">
         <v>92</v>
       </c>
@@ -2589,37 +3367,37 @@
         <v>2773189099.54</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26">
       <c r="A16" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26">
       <c r="A17" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26">
       <c r="A18" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26">
       <c r="A19" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26">
       <c r="A20" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26">
       <c r="A21" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26">
       <c r="A22" s="4" t="s">
         <v>99</v>
       </c>
@@ -2660,12 +3438,12 @@
         <v>120698483.40000001</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26">
       <c r="A23" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26">
       <c r="A24" s="4" t="s">
         <v>101</v>
       </c>
@@ -2676,12 +3454,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26">
       <c r="A25" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26">
       <c r="A26" s="4" t="s">
         <v>103</v>
       </c>
@@ -2713,7 +3491,7 @@
         <v>4926551.74</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
@@ -2793,7 +3571,7 @@
         <v>2896894.07</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26">
       <c r="A28" s="4" t="s">
         <v>105</v>
       </c>
@@ -2816,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26">
       <c r="A29" s="4" t="s">
         <v>106</v>
       </c>
@@ -2878,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26">
       <c r="A30" s="4" t="s">
         <v>107</v>
       </c>
@@ -2958,7 +3736,7 @@
         <v>1330700475.3299999</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26">
       <c r="A31" s="4" t="s">
         <v>108</v>
       </c>
@@ -3038,7 +3816,7 @@
         <v>295132285.08999997</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26">
       <c r="A32" s="4" t="s">
         <v>109</v>
       </c>
@@ -3079,7 +3857,7 @@
         <v>91447500</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26">
       <c r="A33" s="4" t="s">
         <v>110</v>
       </c>
@@ -3120,12 +3898,12 @@
         <v>3193267094.0100002</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26">
       <c r="A34" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26">
       <c r="A35" s="4" t="s">
         <v>112</v>
       </c>
@@ -3166,12 +3944,12 @@
         <v>8214142.1299999999</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26">
       <c r="A36" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26">
       <c r="A37" s="4" t="s">
         <v>114</v>
       </c>
@@ -3251,7 +4029,7 @@
         <v>55344800.609999999</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26">
       <c r="A38" s="4" t="s">
         <v>115</v>
       </c>
@@ -3331,7 +4109,7 @@
         <v>371680848.35000002</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26">
       <c r="A39" s="4" t="s">
         <v>116</v>
       </c>
@@ -3411,7 +4189,7 @@
         <v>160874304.49000001</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26">
       <c r="A40" s="4" t="s">
         <v>117</v>
       </c>
@@ -3449,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26">
       <c r="A41" s="4" t="s">
         <v>118</v>
       </c>
@@ -3511,7 +4289,7 @@
         <v>4543591.1100000003</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26">
       <c r="A42" s="4" t="s">
         <v>119</v>
       </c>
@@ -3591,7 +4369,7 @@
         <v>887575829.64999998</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26">
       <c r="A43" s="4" t="s">
         <v>120</v>
       </c>
@@ -3602,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26">
       <c r="A44" s="4" t="s">
         <v>121</v>
       </c>
@@ -3664,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26">
       <c r="A45" s="4" t="s">
         <v>122</v>
       </c>
@@ -3744,7 +4522,7 @@
         <v>443124645.68000001</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26">
       <c r="A46" s="4" t="s">
         <v>123</v>
       </c>
@@ -3779,7 +4557,7 @@
         <v>21000000</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26">
       <c r="A47" s="4" t="s">
         <v>124</v>
       </c>
@@ -3820,7 +4598,7 @@
         <v>2123100</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26">
       <c r="A48" s="4" t="s">
         <v>125</v>
       </c>
@@ -3867,17 +4645,17 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:26">
       <c r="A49" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:26">
       <c r="A50" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:26">
       <c r="A51" s="4" t="s">
         <v>128</v>
       </c>
@@ -3927,7 +4705,7 @@
         <v>56315726.509999998</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:26">
       <c r="A52" s="4" t="s">
         <v>129</v>
       </c>
@@ -3950,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:26">
       <c r="A53" s="4" t="s">
         <v>130</v>
       </c>
@@ -3997,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:26">
       <c r="A54" s="4" t="s">
         <v>131</v>
       </c>
@@ -4056,7 +4834,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:26">
       <c r="A55" s="4" t="s">
         <v>132</v>
       </c>
@@ -4136,7 +4914,7 @@
         <v>33823984.460000001</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:26">
       <c r="A56" s="4" t="s">
         <v>133</v>
       </c>
@@ -4180,22 +4958,22 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:26">
       <c r="A57" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:26">
       <c r="A58" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:26">
       <c r="A59" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:26">
       <c r="A60" s="4" t="s">
         <v>137</v>
       </c>
@@ -4245,7 +5023,7 @@
         <v>56522892.710000001</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:26">
       <c r="A61" s="4" t="s">
         <v>138</v>
       </c>
@@ -4268,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:26">
       <c r="A62" s="4" t="s">
         <v>139</v>
       </c>
@@ -4330,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:26">
       <c r="A63" s="4" t="s">
         <v>140</v>
       </c>
@@ -4410,7 +5188,7 @@
         <v>33823984.460000001</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:26">
       <c r="A64" s="4" t="s">
         <v>141</v>
       </c>
@@ -4421,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:26">
       <c r="A65" s="4" t="s">
         <v>142</v>
       </c>
@@ -4483,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26">
       <c r="A66" s="4" t="s">
         <v>143</v>
       </c>
@@ -4563,7 +5341,7 @@
         <v>-33823984.460000001</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:26">
       <c r="A67" s="4" t="s">
         <v>144</v>
       </c>
@@ -4589,7 +5367,7 @@
         <v>2016922206.52</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:26">
       <c r="A68" s="4" t="s">
         <v>145</v>
       </c>
@@ -4612,7 +5390,7 @@
         <v>392000000</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:26">
       <c r="A69" s="4" t="s">
         <v>146</v>
       </c>
@@ -4623,12 +5401,12 @@
         <v>129000000</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:26">
       <c r="A70" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:26">
       <c r="A71" s="4" t="s">
         <v>148</v>
       </c>
@@ -4666,7 +5444,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:26">
       <c r="A72" s="4" t="s">
         <v>149</v>
       </c>
@@ -4677,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:26">
       <c r="A73" s="4" t="s">
         <v>150</v>
       </c>
@@ -4715,7 +5493,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:26">
       <c r="A74" s="4" t="s">
         <v>151</v>
       </c>
@@ -4771,7 +5549,7 @@
         <v>129500000</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:26">
       <c r="A75" s="4" t="s">
         <v>152</v>
       </c>
@@ -4785,7 +5563,7 @@
         <v>174460000</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:26">
       <c r="A76" s="4" t="s">
         <v>153</v>
       </c>
@@ -4865,7 +5643,7 @@
         <v>101747692.88</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:26">
       <c r="A77" s="4" t="s">
         <v>154</v>
       </c>
@@ -4909,12 +5687,12 @@
         <v>200188455.97999999</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:26">
       <c r="A78" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:26">
       <c r="A79" s="4" t="s">
         <v>156</v>
       </c>
@@ -4937,7 +5715,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:26">
       <c r="A80" s="4" t="s">
         <v>157</v>
       </c>
@@ -4948,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:26">
       <c r="A81" s="4" t="s">
         <v>158</v>
       </c>
@@ -4971,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:26">
       <c r="A82" s="4" t="s">
         <v>159</v>
       </c>
@@ -5033,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:26">
       <c r="A83" s="4" t="s">
         <v>160</v>
       </c>
@@ -5113,7 +5891,7 @@
         <v>276207692.88</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:26">
       <c r="A84" s="4" t="s">
         <v>161</v>
       </c>
@@ -5124,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:26">
       <c r="A85" s="4" t="s">
         <v>162</v>
       </c>
@@ -5186,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:26">
       <c r="A86" s="4" t="s">
         <v>163</v>
       </c>
@@ -5266,7 +6044,7 @@
         <v>-146707692.88</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:26">
       <c r="A87" s="4" t="s">
         <v>164</v>
       </c>
@@ -5304,7 +6082,7 @@
         <v>-5449166.9900000002</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:26">
       <c r="A88" s="4" t="s">
         <v>165</v>
       </c>
@@ -5315,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:26">
       <c r="A89" s="4" t="s">
         <v>166</v>
       </c>
@@ -5377,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:26">
       <c r="A90" s="4" t="s">
         <v>167</v>
       </c>
@@ -5457,7 +6235,7 @@
         <v>262592968.34</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:26">
       <c r="A91" s="4" t="s">
         <v>168</v>
       </c>
@@ -5519,12 +6297,12 @@
         <v>3895735974.48</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:26">
       <c r="A92" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:26">
       <c r="A93" s="4" t="s">
         <v>170</v>
       </c>
@@ -5571,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:26">
       <c r="A94" s="4" t="s">
         <v>171</v>
       </c>
@@ -5633,7 +6411,7 @@
         <v>4474221148.3299999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:26">
       <c r="A95" s="4" t="s">
         <v>172</v>
       </c>
@@ -5713,7 +6491,7 @@
         <v>251103580.63</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:26">
       <c r="A96" s="4" t="s">
         <v>173</v>
       </c>
@@ -5775,7 +6553,7 @@
         <v>6692428.5199999996</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:26">
       <c r="A97" s="4" t="s">
         <v>174</v>
       </c>
@@ -5855,7 +6633,7 @@
         <v>10108725.710000001</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:26">
       <c r="A98" s="4" t="s">
         <v>175</v>
       </c>
@@ -5935,12 +6713,12 @@
         <v>10108725.710000001</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:26">
       <c r="A99" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:26">
       <c r="A100" s="4" t="s">
         <v>177</v>
       </c>
@@ -6020,7 +6798,7 @@
         <v>3477429.63</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:26">
       <c r="A101" s="4" t="s">
         <v>178</v>
       </c>
@@ -6097,12 +6875,12 @@
         <v>2083990</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:26">
       <c r="A102" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:26">
       <c r="A103" s="4" t="s">
         <v>180</v>
       </c>
@@ -6119,7 +6897,7 @@
         <v>-3929579.65</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:26">
       <c r="A104" s="4" t="s">
         <v>181</v>
       </c>
@@ -6136,7 +6914,7 @@
         <v>3422740.32</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:26">
       <c r="A105" s="4" t="s">
         <v>182</v>
       </c>
@@ -6156,7 +6934,7 @@
         <v>900998.31</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:26">
       <c r="A106" s="4" t="s">
         <v>183</v>
       </c>
@@ -6227,7 +7005,7 @@
         <v>216575.1</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:26">
       <c r="A107" s="4" t="s">
         <v>184</v>
       </c>
@@ -6247,7 +7025,7 @@
         <v>14018472.460000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:26">
       <c r="A108" s="4" t="s">
         <v>185</v>
       </c>
@@ -6306,7 +7084,7 @@
         <v>8118091.0300000003</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:26">
       <c r="A109" s="4" t="s">
         <v>186</v>
       </c>
@@ -6362,7 +7140,7 @@
         <v>-315063.71000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:26">
       <c r="A110" s="4" t="s">
         <v>187</v>
       </c>
@@ -6442,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:26">
       <c r="A111" s="4" t="s">
         <v>188</v>
       </c>
@@ -6504,7 +7282,7 @@
         <v>-44290603.359999999</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:26">
       <c r="A112" s="4" t="s">
         <v>189</v>
       </c>
@@ -6527,12 +7305,12 @@
         <v>-3504618.12</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:26">
       <c r="A113" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:26">
       <c r="A114" s="4" t="s">
         <v>191</v>
       </c>
@@ -6612,7 +7390,7 @@
         <v>-88931716.439999998</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:26">
       <c r="A115" s="4" t="s">
         <v>192</v>
       </c>
@@ -6692,7 +7470,7 @@
         <v>286093006.37</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:26">
       <c r="A116" s="4" t="s">
         <v>193</v>
       </c>
@@ -6772,7 +7550,7 @@
         <v>-90345288.560000002</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:26">
       <c r="A117" s="4" t="s">
         <v>194</v>
       </c>
@@ -6786,7 +7564,7 @@
         <v>65258516.799999997</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:26">
       <c r="A118" s="4" t="s">
         <v>195</v>
       </c>
@@ -6809,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:26">
       <c r="A119" s="4" t="s">
         <v>196</v>
       </c>
@@ -6874,7 +7652,7 @@
         <v>-1974274.59</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:26">
       <c r="A120" s="4" t="s">
         <v>197</v>
       </c>
@@ -6954,22 +7732,22 @@
         <v>443124645.68000001</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:26">
       <c r="A121" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:26">
       <c r="A122" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:26">
       <c r="A123" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:26">
       <c r="A124" s="4" t="s">
         <v>201</v>
       </c>
@@ -6980,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:26">
       <c r="A125" s="4" t="s">
         <v>202</v>
       </c>
@@ -7060,7 +7838,7 @@
         <v>460983583.45999998</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:26">
       <c r="A126" s="4" t="s">
         <v>203</v>
       </c>
@@ -7140,7 +7918,7 @@
         <v>198390615.12</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:26">
       <c r="A127" s="4" t="s">
         <v>204</v>
       </c>
@@ -7151,7 +7929,7 @@
         <v>3000000000</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:26">
       <c r="A128" s="4" t="s">
         <v>205</v>
       </c>
@@ -7159,12 +7937,12 @@
         <v>3000000000</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:26">
       <c r="A129" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:26">
       <c r="A130" s="4" t="s">
         <v>207</v>
       </c>
@@ -7187,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:26">
       <c r="A131" s="4" t="s">
         <v>208</v>
       </c>
@@ -7267,7 +8045,7 @@
         <v>262592968.34</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:26">
       <c r="A132" s="4" t="s">
         <v>209</v>
       </c>
@@ -7344,7 +8122,7 @@
         <v>36.0972639871</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:26">
       <c r="A133" s="4" t="s">
         <v>210</v>
       </c>
@@ -7382,37 +8160,37 @@
         <v>-57.332097914000002</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:26">
       <c r="A134" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:26">
       <c r="A135" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:26">
       <c r="A136" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:26">
       <c r="A137" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:26">
       <c r="A138" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:26">
       <c r="A139" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:26">
       <c r="A140" s="4" t="s">
         <v>217</v>
       </c>
@@ -7450,22 +8228,22 @@
         <v>413.69574613060001</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:26">
       <c r="A141" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:26">
       <c r="A142" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:26">
       <c r="A143" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:26">
       <c r="A144" s="4" t="s">
         <v>221</v>
       </c>
@@ -7488,7 +8266,7 @@
         <v>-62.528482650199997</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:25">
       <c r="A145" s="4" t="s">
         <v>222</v>
       </c>
@@ -7565,17 +8343,17 @@
         <v>1432.0252673236</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:25">
       <c r="A146" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:25">
       <c r="A147" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:25">
       <c r="A148" s="4" t="s">
         <v>225</v>
       </c>
@@ -7652,7 +8430,7 @@
         <v>38.771021738899996</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:25">
       <c r="A149" s="4" t="s">
         <v>226</v>
       </c>
@@ -7729,7 +8507,7 @@
         <v>101.5056157643</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:25">
       <c r="A150" s="4" t="s">
         <v>227</v>
       </c>
@@ -7767,7 +8545,7 @@
         <v>-165.4446540365</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:25">
       <c r="A151" s="4" t="s">
         <v>228</v>
       </c>
@@ -7805,12 +8583,12 @@
         <v>-115.71364363790001</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:25">
       <c r="A152" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:25">
       <c r="A153" s="4" t="s">
         <v>230</v>
       </c>
@@ -7848,12 +8626,12 @@
         <v>778.03007299559999</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:25">
       <c r="A154" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:25">
       <c r="A155" s="4" t="s">
         <v>232</v>
       </c>
@@ -7930,7 +8708,7 @@
         <v>68.606174042600003</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:25">
       <c r="A156" s="4" t="s">
         <v>233</v>
       </c>
@@ -8007,7 +8785,7 @@
         <v>88.912401837999994</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:25">
       <c r="A157" s="4" t="s">
         <v>234</v>
       </c>
@@ -8084,7 +8862,7 @@
         <v>157.44913884350001</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:25">
       <c r="A158" s="4" t="s">
         <v>235</v>
       </c>
@@ -8098,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:25">
       <c r="A159" s="4" t="s">
         <v>236</v>
       </c>
@@ -8106,7 +8884,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:25">
       <c r="A160" s="4" t="s">
         <v>237</v>
       </c>
@@ -8183,17 +8961,17 @@
         <v>103.2889527041</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:25">
       <c r="A161" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:25">
       <c r="A162" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:25">
       <c r="A163" s="4" t="s">
         <v>240</v>
       </c>
@@ -8270,7 +9048,7 @@
         <v>-90.457981120599996</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:25">
       <c r="A164" s="4" t="s">
         <v>241</v>
       </c>
@@ -8290,7 +9068,7 @@
         <v>19.047619047600001</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:25">
       <c r="A165" s="4" t="s">
         <v>242</v>
       </c>
@@ -8325,7 +9103,7 @@
         <v>-2.0113390795999999</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:25">
       <c r="A166" s="4" t="s">
         <v>243</v>
       </c>
@@ -8357,17 +9135,17 @@
         <v>89.903846153800004</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:25">
       <c r="A167" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:25">
       <c r="A168" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:25">
       <c r="A169" s="4" t="s">
         <v>246</v>
       </c>
@@ -8414,17 +9192,17 @@
         <v>277.3969368969</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:25">
       <c r="A170" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:25">
       <c r="A171" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:25">
       <c r="A172" s="4" t="s">
         <v>249</v>
       </c>
@@ -8477,7 +9255,7 @@
         <v>16.861348977900001</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:25">
       <c r="A173" s="4" t="s">
         <v>250</v>
       </c>
@@ -8554,7 +9332,7 @@
         <v>880.64007974059996</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:25">
       <c r="A174" s="4" t="s">
         <v>251</v>
       </c>
@@ -8586,22 +9364,22 @@
         <v>-58.536585365900002</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:25">
       <c r="A175" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:25">
       <c r="A176" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:25">
       <c r="A177" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:25">
       <c r="A178" s="4" t="s">
         <v>255</v>
       </c>
@@ -8648,17 +9426,17 @@
         <v>167.98931614689999</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:25">
       <c r="A179" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:25">
       <c r="A180" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:25">
       <c r="A181" s="4" t="s">
         <v>258</v>
       </c>
@@ -8735,17 +9513,17 @@
         <v>880.64007974059996</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:25">
       <c r="A182" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:25">
       <c r="A183" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:25">
       <c r="A184" s="4" t="s">
         <v>261</v>
       </c>
@@ -8822,7 +9600,7 @@
         <v>-880.64007974059996</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:25">
       <c r="A185" s="4" t="s">
         <v>262</v>
       </c>
@@ -8836,7 +9614,7 @@
         <v>-98.469387755100001</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:25">
       <c r="A186" s="4" t="s">
         <v>263</v>
       </c>
@@ -8850,17 +9628,17 @@
         <v>-98.469387755100001</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:25">
       <c r="A187" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:25">
       <c r="A188" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:25">
       <c r="A189" s="4" t="s">
         <v>266</v>
       </c>
@@ -8889,12 +9667,12 @@
         <v>-87.242898399400005</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:25">
       <c r="A190" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:25">
       <c r="A191" s="4" t="s">
         <v>268</v>
       </c>
@@ -8902,7 +9680,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:25">
       <c r="A192" s="4" t="s">
         <v>269</v>
       </c>
@@ -8946,7 +9724,7 @@
         <v>1457.4688853436</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:25">
       <c r="A193" s="4" t="s">
         <v>270</v>
       </c>
@@ -8954,7 +9732,7 @@
         <v>-26.057549008399999</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:25">
       <c r="A194" s="4" t="s">
         <v>271</v>
       </c>
@@ -9031,7 +9809,7 @@
         <v>1.2904628428</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:25">
       <c r="A195" s="4" t="s">
         <v>272</v>
       </c>
@@ -9072,12 +9850,12 @@
         <v>215.58592213879999</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:25">
       <c r="A196" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:25">
       <c r="A197" s="4" t="s">
         <v>274</v>
       </c>
@@ -9094,22 +9872,22 @@
         <v>141.38156739959999</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:25">
       <c r="A198" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:25">
       <c r="A199" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:25">
       <c r="A200" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:25">
       <c r="A201" s="4" t="s">
         <v>278</v>
       </c>
@@ -9186,17 +9964,17 @@
         <v>-15.983256429100001</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:25">
       <c r="A202" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:25">
       <c r="A203" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:25">
       <c r="A204" s="4" t="s">
         <v>281</v>
       </c>
@@ -9273,7 +10051,7 @@
         <v>1316.6107055681</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:25">
       <c r="A205" s="4" t="s">
         <v>282</v>
       </c>
@@ -9308,17 +10086,17 @@
         <v>-198.64255839219999</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:25">
       <c r="A206" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:25">
       <c r="A207" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:25">
       <c r="A208" s="4" t="s">
         <v>285</v>
       </c>
@@ -9395,7 +10173,7 @@
         <v>469.49468071960001</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:25">
       <c r="A209" s="4" t="s">
         <v>286</v>
       </c>
@@ -9454,17 +10232,17 @@
         <v>14.8491883854</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:25">
       <c r="A210" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:25">
       <c r="A211" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:25">
       <c r="A212" s="4" t="s">
         <v>289</v>
       </c>
@@ -9523,7 +10301,7 @@
         <v>5.5537074152999999</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:25">
       <c r="A213" s="4" t="s">
         <v>290</v>
       </c>
@@ -9600,7 +10378,7 @@
         <v>30.7391644183</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:25">
       <c r="A214" s="4" t="s">
         <v>291</v>
       </c>
@@ -9659,7 +10437,7 @@
         <v>-10.688508631199999</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:25">
       <c r="A215" s="4" t="s">
         <v>292</v>
       </c>
@@ -9736,7 +10514,7 @@
         <v>14.6286735086</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:25">
       <c r="A216" s="4" t="s">
         <v>293</v>
       </c>
@@ -9813,12 +10591,12 @@
         <v>14.6286735086</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:25">
       <c r="A217" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:25">
       <c r="A218" s="4" t="s">
         <v>295</v>
       </c>
@@ -9895,7 +10673,7 @@
         <v>-80.560353136499998</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:25">
       <c r="A219" s="4" t="s">
         <v>296</v>
       </c>
@@ -9969,12 +10747,12 @@
         <v>-370.1094712547</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:25">
       <c r="A220" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:25">
       <c r="A221" s="4" t="s">
         <v>298</v>
       </c>
@@ -9988,7 +10766,7 @@
         <v>693.89766536479999</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:25">
       <c r="A222" s="4" t="s">
         <v>299</v>
       </c>
@@ -10002,7 +10780,7 @@
         <v>-51.031684168200002</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:25">
       <c r="A223" s="4" t="s">
         <v>300</v>
       </c>
@@ -10013,7 +10791,7 @@
         <v>324.9796785895</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:25">
       <c r="A224" s="4" t="s">
         <v>301</v>
       </c>
@@ -10075,7 +10853,7 @@
         <v>178.42393700849999</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:25">
       <c r="A225" s="4" t="s">
         <v>302</v>
       </c>
@@ -10089,7 +10867,7 @@
         <v>-134.93957308099999</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:25">
       <c r="A226" s="4" t="s">
         <v>303</v>
       </c>
@@ -10142,7 +10920,7 @@
         <v>-169.73454398429999</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:25">
       <c r="A227" s="4" t="s">
         <v>304</v>
       </c>
@@ -10192,7 +10970,7 @@
         <v>-35.830813393299998</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:25">
       <c r="A228" s="4" t="s">
         <v>305</v>
       </c>
@@ -10251,7 +11029,7 @@
         <v>364.71515092499999</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:25">
       <c r="A229" s="4" t="s">
         <v>306</v>
       </c>
@@ -10310,7 +11088,7 @@
         <v>364.71515092499999</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:25">
       <c r="A230" s="4" t="s">
         <v>307</v>
       </c>
@@ -10330,12 +11108,12 @@
         <v>-1932.6062738042001</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:25">
       <c r="A231" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:25">
       <c r="A232" s="4" t="s">
         <v>309</v>
       </c>
@@ -10412,7 +11190,7 @@
         <v>-208.98127440889999</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:25">
       <c r="A233" s="4" t="s">
         <v>310</v>
       </c>
@@ -10489,7 +11267,7 @@
         <v>-120.1035699194</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:25">
       <c r="A234" s="4" t="s">
         <v>311</v>
       </c>
@@ -10566,7 +11344,7 @@
         <v>122.7813211934</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:25">
       <c r="A235" s="4" t="s">
         <v>312</v>
       </c>
@@ -10577,12 +11355,12 @@
         <v>-79.074758928600005</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:25">
       <c r="A236" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:25">
       <c r="A237" s="4" t="s">
         <v>314</v>
       </c>
@@ -10590,7 +11368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:25">
       <c r="A238" s="4" t="s">
         <v>315</v>
       </c>
@@ -10667,27 +11445,27 @@
         <v>-90.457981120599996</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:25">
       <c r="A239" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:25">
       <c r="A240" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:26">
       <c r="A241" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:26">
       <c r="A242" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:26">
       <c r="A243" s="4" t="s">
         <v>320</v>
       </c>
@@ -10764,7 +11542,7 @@
         <v>324.40482487809999</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:26">
       <c r="A244" s="4" t="s">
         <v>321</v>
       </c>
@@ -10841,7 +11619,7 @@
         <v>132.361587861</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:26">
       <c r="A245" s="4" t="s">
         <v>322</v>
       </c>
@@ -10849,17 +11627,17 @@
         <v>89.071333333300004</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:26">
       <c r="A246" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:26">
       <c r="A247" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:26">
       <c r="A248" s="4" t="s">
         <v>325</v>
       </c>
@@ -10867,7 +11645,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:26">
       <c r="A249" s="4" t="s">
         <v>326</v>
       </c>
@@ -10944,7 +11722,7 @@
         <v>469.49468071960001</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:26">
       <c r="A250" s="4" t="s">
         <v>327</v>
       </c>
@@ -11024,12 +11802,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:26">
       <c r="A251" s="4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:26">
       <c r="A252" s="4" t="s">
         <v>330</v>
       </c>
@@ -11061,7 +11839,7 @@
         <v>22005657.780000001</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:26">
       <c r="A253" s="4" t="s">
         <v>331</v>
       </c>
@@ -11090,7 +11868,7 @@
         <v>52.770612931000002</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:26">
       <c r="A254" s="4" t="s">
         <v>332</v>
       </c>
@@ -11107,7 +11885,7 @@
         <v>101608046.18000001</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:26">
       <c r="A255" s="4" t="s">
         <v>333</v>
       </c>
@@ -11125,4 +11903,2064 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B256"/>
+  <sheetViews>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>